--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -192,52 +258,52 @@
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.77734375" customWidth="true"/>
     <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29180923848245383</v>
+        <v>0.29180857720257425</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2917953781377462</v>
+        <v>0.29179467479371896</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>5.2447184955357871e-06</v>
+        <v>5.2377154102540875e-06</v>
       </c>
       <c r="E3" s="0">
-        <v>-4.2873052765729e-07</v>
+        <v>-4.32201504328257e-07</v>
       </c>
       <c r="F3" s="0">
-        <v>-4.2890614489242193e-08</v>
+        <v>-5.1669404282718171e-08</v>
       </c>
       <c r="G3" s="0">
-        <v>-3.4761646176372552e-07</v>
+        <v>-3.4655490781911241e-07</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.8765885481029264e-08</v>
+        <v>-2.9437304133139655e-08</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.2559607052926274e-06</v>
+        <v>-1.2545094737201008e-06</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.6995802499697454e-05</v>
+        <v>-1.6995802487596023e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2915648639613056</v>
+        <v>0.29155745328959654</v>
       </c>
       <c r="C4" s="0">
-        <v>-2.3424958059822127e-05</v>
+        <v>-2.7463756931422666e-05</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.0470087713298592e-06</v>
+        <v>1.0452752701318788e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-3.4058759220132184e-06</v>
+        <v>-3.4059729041119177e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.8789674625492335e-06</v>
+        <v>-3.8566844274809354e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-4.2037739938950963e-05</v>
+        <v>-4.1974836158737086e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.8992156109871993e-05</v>
+        <v>-3.9575207538764989e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.5737107797508809e-05</v>
+        <v>-1.5737071573818096e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29249221971446071</v>
+        <v>0.29249458244124582</v>
       </c>
       <c r="C5" s="0">
-        <v>2.0018282386062884e-05</v>
+        <v>2.4112953621296108e-05</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00023194285354658601</v>
+        <v>0.00023288776501718126</v>
       </c>
       <c r="E5" s="0">
-        <v>5.5541146254858006e-05</v>
+        <v>5.5753262299166558e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00013044263967187499</v>
+        <v>0.00013116278447671199</v>
       </c>
       <c r="G5" s="0">
-        <v>-9.4738988111959916e-06</v>
+        <v>-9.4624779553512817e-06</v>
       </c>
       <c r="H5" s="0">
-        <v>8.8461228458659087e-06</v>
+        <v>8.879533571393353e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-2.4786321425689124e-06</v>
+        <v>-2.476905921594688e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.7288568817814856e-05</v>
+        <v>5.7288534141608505e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29331986073829575</v>
+        <v>0.29332235918831101</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0012671643806785532</v>
+        <v>0.0012667107939491129</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.4232723626562428e-06</v>
+        <v>-3.4231124439295003e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.5863576947764945e-06</v>
+        <v>-4.5829996064742957e-06</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>5.5867844599642435e-07</v>
+        <v>5.584846949284453e-07</v>
       </c>
       <c r="I6" s="0">
-        <v>-2.192027928116639e-05</v>
+        <v>-2.1921735887829625e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00070702453450438574</v>
+        <v>-0.00070702462358079865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29274333636715394</v>
+        <v>0.29274577443827393</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00018648885336734847</v>
+        <v>-0.00018646233140194075</v>
       </c>
       <c r="E7" s="0">
-        <v>1.4441007856051786e-07</v>
+        <v>1.4474639632467839e-07</v>
       </c>
       <c r="F7" s="0">
-        <v>-4.2908076554835906e-06</v>
+        <v>-4.2867082765333545e-06</v>
       </c>
       <c r="G7" s="0">
-        <v>1.604197230993544e-05</v>
+        <v>1.6043687739984064e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>6.1074011337763717e-06</v>
+        <v>6.1074976007294311e-06</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00037592543702991144</v>
+        <v>-0.00037592543599962447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.28835702502350319</v>
+        <v>0.28841244425076279</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0040411748454690123</v>
+        <v>-0.0039973312730613589</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>3.1572554644051206e-07</v>
+        <v>3.1572913856478985e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-1.4224156913162579e-05</v>
+        <v>-1.4224908330645857e-05</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-8.5106580912533012e-07</v>
+        <v>-8.5087805718731297e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00016163953714635817</v>
+        <v>0.0001616428566976706</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-2.2614161653833342e-06</v>
+        <v>-2.2617538632530021e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.28712152357598308</v>
+        <v>0.28717283336378457</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.00055493872313898439</v>
+        <v>-0.00055813080745866297</v>
       </c>
       <c r="E9" s="0">
-        <v>-3.9698264554339466e-05</v>
+        <v>-3.9719309519645994e-05</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.00020820147469545496</v>
+        <v>-0.00020826765663065809</v>
       </c>
       <c r="G9" s="0">
-        <v>-3.4185365909594547e-05</v>
+        <v>-3.4321360790166818e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-7.3826608705678824e-06</v>
+        <v>-7.3853147883835908e-06</v>
       </c>
       <c r="I9" s="0">
-        <v>8.5844753137883618e-06</v>
+        <v>8.568795645293963e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.0436423973247955e-05</v>
+        <v>-1.0436329137830658e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30915199155188866</v>
+        <v>0.30978013341989891</v>
       </c>
       <c r="C10" s="0">
-        <v>0.022683946729902271</v>
+        <v>0.023201758456323756</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1.2199316131584834e-05</v>
+        <v>1.2200087754986122e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>1.9846527127651722e-05</v>
+        <v>1.9856845403149657e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1.3473750215945305e-05</v>
+        <v>1.3474028664034264e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-6.8927016718438806e-07</v>
+        <v>-6.9880241850632641e-07</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021909642148903556</v>
+        <v>-0.002202230105198081</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00086365640098545748</v>
+        <v>0.0008636547946184181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.3170326136435056</v>
+        <v>0.31762194009609546</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0066244186878711055</v>
+        <v>0.0065872565240356973</v>
       </c>
       <c r="E11" s="0">
-        <v>-1.3235117434790649e-05</v>
+        <v>-1.2805020467949557e-05</v>
       </c>
       <c r="F11" s="0">
-        <v>-7.1596385709909403e-05</v>
+        <v>-7.0557259336400399e-05</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00022644666846545402</v>
+        <v>0.00022491995958260811</v>
       </c>
       <c r="H11" s="0">
-        <v>-1.1022127508443927e-05</v>
+        <v>-1.0963649442072172e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00091579547591481392</v>
+        <v>-0.00091800808960951436</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0022173444175278556</v>
+        <v>0.0022173454029685291</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.27067844482950693</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.034747241197966842</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-1.7005954854300203e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-3.9978308232488955e-07</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1.3142646085194413e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00017226292559806961</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.003749760710910377</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29180857720257425</v>
+        <v>0.29180854998734268</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29179467479371896</v>
+        <v>0.29179469850993245</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>5.2377154102540875e-06</v>
+        <v>5.2623267287249187e-06</v>
       </c>
       <c r="E3" s="0">
-        <v>-4.32201504328257e-07</v>
+        <v>-4.3071746135008452e-07</v>
       </c>
       <c r="F3" s="0">
-        <v>-5.1669404282718171e-08</v>
+        <v>-4.7886021421380759e-08</v>
       </c>
       <c r="G3" s="0">
-        <v>-3.4655490781911241e-07</v>
+        <v>-3.4595570056482621e-07</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.9437304133139655e-08</v>
+        <v>-2.9143277317737802e-08</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.2545094737201008e-06</v>
+        <v>-1.2536477257990743e-06</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.6995802487596023e-05</v>
+        <v>-1.699580330810635e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29155745328959654</v>
+        <v>0.2915489874084542</v>
       </c>
       <c r="C4" s="0">
-        <v>-2.7463756931422666e-05</v>
+        <v>-2.9054287529218981e-05</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.0452752701318788e-06</v>
+        <v>1.0460532143035363e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-3.4059729041119177e-06</v>
+        <v>-3.3817729363308452e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.8566844274809354e-06</v>
+        <v>-3.840114731377266e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-4.1974836158737086e-05</v>
+        <v>-4.1931556892020903e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.9575207538764989e-05</v>
+        <v>-4.2584653456259837e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.5737071573818096e-05</v>
+        <v>-1.5737053563114056e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29249458244124582</v>
+        <v>0.29248833513534556</v>
       </c>
       <c r="C5" s="0">
-        <v>2.4112953621296108e-05</v>
+        <v>2.2823771846553114e-05</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00023288776501718126</v>
+        <v>0.00023371157508444336</v>
       </c>
       <c r="E5" s="0">
-        <v>5.5753262299166558e-05</v>
+        <v>5.5970132832044776e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00013116278447671199</v>
+        <v>0.0001318818697551704</v>
       </c>
       <c r="G5" s="0">
-        <v>-9.4624779553512817e-06</v>
+        <v>-9.4576816632444302e-06</v>
       </c>
       <c r="H5" s="0">
-        <v>8.879533571393353e-06</v>
+        <v>8.9148861284194343e-06</v>
       </c>
       <c r="I5" s="0">
-        <v>-2.476905921594688e-06</v>
+        <v>-2.4760579882315555e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.7288534141608505e-05</v>
+        <v>5.7288490095119826e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29332235918831101</v>
+        <v>0.29332659659390842</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0012667107939491129</v>
+        <v>0.0012746954502982136</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.4231124439295003e-06</v>
+        <v>-3.4227883186223764e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.5829996064742957e-06</v>
+        <v>-4.5716081827222419e-06</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>5.584846949284453e-07</v>
+        <v>5.6340171410171643e-07</v>
       </c>
       <c r="I6" s="0">
-        <v>-2.1921735887829625e-05</v>
+        <v>-2.1902563286226092e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00070702462358079865</v>
+        <v>-0.0007070246131022917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29274577443827393</v>
+        <v>0.29275124691309651</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00018646233140194075</v>
+        <v>-0.00018625662929242431</v>
       </c>
       <c r="E7" s="0">
-        <v>1.4474639632467839e-07</v>
+        <v>2.3667683935542243e-07</v>
       </c>
       <c r="F7" s="0">
-        <v>-4.2867082765333545e-06</v>
+        <v>-4.014584536924724e-06</v>
       </c>
       <c r="G7" s="0">
-        <v>1.6043687739984064e-05</v>
+        <v>1.6016997150660908e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>6.1074976007294311e-06</v>
+        <v>6.1061218068821276e-06</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00037592543599962447</v>
+        <v>-0.00037592544008069328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.28841244425076279</v>
+        <v>0.28818170478569183</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0039973312730613589</v>
+        <v>-0.0041958006321828429</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>3.1572913856478985e-07</v>
+        <v>3.158362530977266e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-1.4224908330645857e-05</v>
+        <v>-1.4233973045597387e-05</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-8.5087805718731297e-07</v>
+        <v>-8.4885524978432817e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0001616428566976706</v>
+        <v>0.00016158459987661441</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-2.2617538632530021e-06</v>
+        <v>-2.2612298061219782e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.28717283336378457</v>
+        <v>0.28695463673605348</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.00055813080745866297</v>
+        <v>-0.00054540001947733351</v>
       </c>
       <c r="E9" s="0">
-        <v>-3.9719309519645994e-05</v>
+        <v>-3.9844122727621129e-05</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.00020826765663065809</v>
+        <v>-0.00020875503195969488</v>
       </c>
       <c r="G9" s="0">
-        <v>-3.4321360790166818e-05</v>
+        <v>-3.3672240713027336e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-7.3853147883835908e-06</v>
+        <v>-7.4096593179599146e-06</v>
       </c>
       <c r="I9" s="0">
-        <v>8.568795645293963e-06</v>
+        <v>8.6342896994554992e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.0436329137830658e-05</v>
+        <v>-1.0436703183125395e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30978013341989891</v>
+        <v>0.30956353439032896</v>
       </c>
       <c r="C10" s="0">
-        <v>0.023201758456323756</v>
+        <v>0.023052982137836294</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1.2200087754986122e-05</v>
+        <v>1.2202892085142369e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>1.9856845403149657e-05</v>
+        <v>1.9884400990403671e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1.3474028664034264e-05</v>
+        <v>1.3476230442819462e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-6.9880241850632641e-07</v>
+        <v>-6.542229162524924e-07</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.002202230105198081</v>
+        <v>-0.0021507092977256404</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0008636547946184181</v>
+        <v>0.00086365548828171157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.31762194009609546</v>
+        <v>0.31741142694062868</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0065872565240356973</v>
+        <v>0.006613751096343907</v>
       </c>
       <c r="E11" s="0">
-        <v>-1.2805020467949557e-05</v>
+        <v>-1.4414024992428318e-05</v>
       </c>
       <c r="F11" s="0">
-        <v>-7.0557259336400399e-05</v>
+        <v>-7.4236958879327325e-05</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00022491995958260811</v>
+        <v>0.00022537932932055252</v>
       </c>
       <c r="H11" s="0">
-        <v>-1.0963649442072172e-05</v>
+        <v>-1.1169007506931835e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00091800808960951436</v>
+        <v>-0.00091684234721778747</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0022173454029685291</v>
+        <v>0.002217345183272712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.27067844482950693</v>
+        <v>0.25450790895218939</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.034747241197966842</v>
+        <v>-0.041170644876413073</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-1.7005954854300203e-06</v>
+        <v>-1.6157043441473809e-06</v>
       </c>
       <c r="F12" s="0">
-        <v>-3.9978308232488955e-07</v>
+        <v>-0.00030568067656859337</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>1.3142646085194413e-06</v>
+        <v>-8.4289911931097983e-05</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00017226292559806961</v>
+        <v>-0.007872500481644144</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.003749760710910377</v>
+        <v>-0.0037451538506991788</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.20852180678199225</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.050079859672016391</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.0014229961615811685</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0004816259118904598</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00026062138105609385</v>
+      </c>
+      <c r="H13" s="0">
+        <v>5.2960192998655124e-05</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0017394432176956012</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.0011426869938694906</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.0097106276874447395</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.23186721106506791</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-8.8809905631271286e-06</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.6361939406946893e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-1.1034469159682221e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.0071685399473162227</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.6143866140572172e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="15.77734375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.77734375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29180854998734268</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29179469850993245</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.2915489874084542</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29248833513534556</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.29332659659390842</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.29275124691309651</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.28818170478569183</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.28695463673605348</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.30956353439032896</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.31741142694062868</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.25450790895218939</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.20852180678199225</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0097106276874447395</v>
+        <v>-0.01475006172579979</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.23186721106506791</v>
+        <v>-0.23083268966632275</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-8.8809905631271286e-06</v>
+        <v>-9.6976477255898953e-06</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.6361939406946893e-05</v>
+        <v>-0.0012374626602889994</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-1.1034469159682221e-06</v>
+        <v>-0.0029772557723374816</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.0071685399473162227</v>
+        <v>-0.011389985227956411</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.6143866140572172e-06</v>
+        <v>0.0012882381105090712</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.24088369423851658</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.18874294975915712</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0049037061378547596</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.013570305506935373</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0051905523531523123</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0059444422497355598</v>
       </c>
     </row>
   </sheetData>
